--- a/data/trans_orig/P1404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>46411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34991</v>
+        <v>35793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62019</v>
+        <v>60720</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06687360998983954</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05041821887374089</v>
+        <v>0.05157360869570161</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08936243198909284</v>
+        <v>0.08749137934603858</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -765,19 +765,19 @@
         <v>68698</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54904</v>
+        <v>54820</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86853</v>
+        <v>86262</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09980132790574751</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0797609866180428</v>
+        <v>0.0796399935853099</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1261752691296155</v>
+        <v>0.1253169721792138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -786,19 +786,19 @@
         <v>115109</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97454</v>
+        <v>95036</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136060</v>
+        <v>137055</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08327004563652614</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07049785867140947</v>
+        <v>0.06874862317445675</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0984253676347585</v>
+        <v>0.09914574698145628</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>647601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>631993</v>
+        <v>633292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>659021</v>
+        <v>658219</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9331263900101604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.910637568010907</v>
+        <v>0.9125086206539613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9495817811262591</v>
+        <v>0.9484263913042983</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>627</v>
@@ -836,19 +836,19 @@
         <v>619653</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>601498</v>
+        <v>602089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>633447</v>
+        <v>633531</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9001986720942525</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8738247308703845</v>
+        <v>0.8746830278207864</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9202390133819572</v>
+        <v>0.9203600064146901</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1263</v>
@@ -857,19 +857,19 @@
         <v>1267254</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1246303</v>
+        <v>1245308</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1284909</v>
+        <v>1287327</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9167299543634738</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9015746323652414</v>
+        <v>0.9008542530185438</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9295021413285904</v>
+        <v>0.9312513768255434</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>85923</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68203</v>
+        <v>69364</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105784</v>
+        <v>104325</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08933587431060021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07091220333887567</v>
+        <v>0.07211848859188374</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1099854258604992</v>
+        <v>0.1084689728032373</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -982,19 +982,19 @@
         <v>110548</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>90932</v>
+        <v>91328</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>133710</v>
+        <v>133349</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1141557456587428</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09389939414608517</v>
+        <v>0.09430908334213152</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1380736721446832</v>
+        <v>0.1377013977429674</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>185</v>
@@ -1003,19 +1003,19 @@
         <v>196471</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>170177</v>
+        <v>171437</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>223751</v>
+        <v>225666</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1017881991962082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08816590111795256</v>
+        <v>0.08881862791564032</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1159215899660027</v>
+        <v>0.1169139228457352</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>875877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>856016</v>
+        <v>857475</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>893597</v>
+        <v>892436</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9106641256893998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8900145741395008</v>
+        <v>0.8915310271967628</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9290877966611247</v>
+        <v>0.9278815114081164</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>806</v>
@@ -1053,19 +1053,19 @@
         <v>857845</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>834683</v>
+        <v>835044</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>877461</v>
+        <v>877065</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8858442543412572</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8619263278553169</v>
+        <v>0.8622986022570326</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9061006058539148</v>
+        <v>0.9056909166578685</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1619</v>
@@ -1074,19 +1074,19 @@
         <v>1733722</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1706442</v>
+        <v>1704527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1760016</v>
+        <v>1758756</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8982118008037918</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8840784100339973</v>
+        <v>0.8830860771542647</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9118340988820475</v>
+        <v>0.9111813720843597</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>50086</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37240</v>
+        <v>38802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65416</v>
+        <v>67934</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0738175060598943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05488503229901118</v>
+        <v>0.05718702619434148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09641103115544936</v>
+        <v>0.1001223329227652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -1199,19 +1199,19 @@
         <v>74159</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60100</v>
+        <v>59598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92672</v>
+        <v>92465</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1084449533837802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08788549758053507</v>
+        <v>0.08715203467381887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1355165154222033</v>
+        <v>0.1352135654113747</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -1220,19 +1220,19 @@
         <v>124245</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>106012</v>
+        <v>104584</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147489</v>
+        <v>146049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09119899415542554</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07781579975133583</v>
+        <v>0.07676714512809184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1082609977475798</v>
+        <v>0.1072035422807126</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>628423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>613093</v>
+        <v>610575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>641269</v>
+        <v>639707</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9261824939401057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9035889688445504</v>
+        <v>0.8998776670772345</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9451149677009887</v>
+        <v>0.9428129738056583</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>620</v>
@@ -1270,19 +1270,19 @@
         <v>609682</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>591169</v>
+        <v>591376</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>623741</v>
+        <v>624243</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8915550466162199</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8644834845777968</v>
+        <v>0.8647864345886254</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9121145024194649</v>
+        <v>0.9128479653261812</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1211</v>
@@ -1291,19 +1291,19 @@
         <v>1238105</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1214861</v>
+        <v>1216301</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1256338</v>
+        <v>1257766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9088010058445745</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8917390022524204</v>
+        <v>0.892796457719288</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9221842002486644</v>
+        <v>0.9232328548719084</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>77291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61556</v>
+        <v>61885</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94281</v>
+        <v>93261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08203104740366403</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06533076692658125</v>
+        <v>0.06568010637209161</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1000618814476006</v>
+        <v>0.09897942166691438</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -1416,19 +1416,19 @@
         <v>94776</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75963</v>
+        <v>76441</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114300</v>
+        <v>116629</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09125275122513288</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07313895437233844</v>
+        <v>0.07359914158156115</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1100507062761073</v>
+        <v>0.1122935775955879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>175</v>
@@ -1437,19 +1437,19 @@
         <v>172068</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>149260</v>
+        <v>148178</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>197266</v>
+        <v>197521</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08686626923253409</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07535196191319955</v>
+        <v>0.07480577856568849</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0995871780552266</v>
+        <v>0.09971603733046139</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>864931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>847941</v>
+        <v>848961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>880666</v>
+        <v>880337</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9179689525963359</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8999381185523994</v>
+        <v>0.9010205783330856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9346692330734189</v>
+        <v>0.9343198936279083</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>909</v>
@@ -1487,19 +1487,19 @@
         <v>943836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>924312</v>
+        <v>921983</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>962649</v>
+        <v>962171</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9087472487748671</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8899492937238924</v>
+        <v>0.8877064224044121</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9268610456276616</v>
+        <v>0.9264008584184389</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1816</v>
@@ -1508,19 +1508,19 @@
         <v>1808766</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1783568</v>
+        <v>1783313</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1831574</v>
+        <v>1832656</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.913133730767466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9004128219447738</v>
+        <v>0.9002839626695387</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9246480380868005</v>
+        <v>0.9251942214343116</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>259712</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>231329</v>
+        <v>230412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>290698</v>
+        <v>290374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07926391656377424</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07060155006710656</v>
+        <v>0.0703215665348931</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08872081548127093</v>
+        <v>0.08862195580850631</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>335</v>
@@ -1633,19 +1633,19 @@
         <v>348181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>318811</v>
+        <v>312999</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>387057</v>
+        <v>388214</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1030366913449996</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09434520588601045</v>
+        <v>0.09262512494237973</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1145409934477128</v>
+        <v>0.1148835484861753</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>602</v>
@@ -1654,19 +1654,19 @@
         <v>607893</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>561667</v>
+        <v>558746</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>657803</v>
+        <v>653089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09133363217087917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08438834873613438</v>
+        <v>0.0839494883795797</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09883244104123255</v>
+        <v>0.09812422392078991</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3016831</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2985845</v>
+        <v>2986169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3045214</v>
+        <v>3046131</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9207360834362258</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9112791845187294</v>
+        <v>0.9113780441914937</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9293984499328934</v>
+        <v>0.9296784334651069</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2962</v>
@@ -1704,19 +1704,19 @@
         <v>3031016</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2992140</v>
+        <v>2990983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3060386</v>
+        <v>3066198</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8969633086550004</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8854590065522873</v>
+        <v>0.8851164515138248</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9056547941139895</v>
+        <v>0.9073748750576203</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5909</v>
@@ -1725,19 +1725,19 @@
         <v>6047848</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5997938</v>
+        <v>6002652</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6094074</v>
+        <v>6096995</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9086663678291208</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9011675589587674</v>
+        <v>0.9018757760792101</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9156116512638657</v>
+        <v>0.9160505116204203</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>91719</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73611</v>
+        <v>73991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111442</v>
+        <v>109515</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1303810558698984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1046396618795035</v>
+        <v>0.1051797318973755</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1584179907906803</v>
+        <v>0.1556789984436665</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -2090,19 +2090,19 @@
         <v>105243</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85984</v>
+        <v>86888</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124923</v>
+        <v>123739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1509838785339032</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1233534541015227</v>
+        <v>0.1246505598704483</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1792164393853377</v>
+        <v>0.1775180030059111</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -2111,19 +2111,19 @@
         <v>196962</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>173109</v>
+        <v>174502</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>225731</v>
+        <v>229083</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1406352528840395</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1236035633054452</v>
+        <v>0.124598299581749</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1611765759564075</v>
+        <v>0.1635703643926553</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>611750</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>592027</v>
+        <v>593954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>629858</v>
+        <v>629478</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8696189441301017</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8415820092093198</v>
+        <v>0.8443210015563335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.895360338120496</v>
+        <v>0.8948202681026242</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>551</v>
@@ -2161,19 +2161,19 @@
         <v>591807</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>572127</v>
+        <v>573311</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>611066</v>
+        <v>610162</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8490161214660968</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8207835606146623</v>
+        <v>0.8224819969940887</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8766465458984772</v>
+        <v>0.8753494401295516</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1139</v>
@@ -2182,19 +2182,19 @@
         <v>1203557</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1174788</v>
+        <v>1171436</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1227410</v>
+        <v>1226017</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8593647471159606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8388234240435926</v>
+        <v>0.8364296356073447</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8763964366945548</v>
+        <v>0.8754017004182512</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>114946</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>94413</v>
+        <v>95220</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>138214</v>
+        <v>137470</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1129199238046835</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09274832081874976</v>
+        <v>0.09354134598023636</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1357772432105858</v>
+        <v>0.1350463796082992</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>130</v>
@@ -2307,19 +2307,19 @@
         <v>144517</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>121728</v>
+        <v>122182</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>166182</v>
+        <v>169093</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1404475368280616</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1183005952381959</v>
+        <v>0.1187420567435531</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1615031070255035</v>
+        <v>0.1643314681210838</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>234</v>
@@ -2328,19 +2328,19 @@
         <v>259463</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>233133</v>
+        <v>229496</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>292841</v>
+        <v>293057</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1267578723669292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1138944814557688</v>
+        <v>0.112117571898123</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1430640457551237</v>
+        <v>0.143169742039889</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>903001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>879733</v>
+        <v>880477</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>923534</v>
+        <v>922727</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8870800761953166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8642227567894143</v>
+        <v>0.8649536203916994</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9072516791812503</v>
+        <v>0.9064586540197636</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>808</v>
@@ -2378,19 +2378,19 @@
         <v>884456</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>862791</v>
+        <v>859880</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>907245</v>
+        <v>906791</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8595524631719385</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8384968929744967</v>
+        <v>0.8356685318789163</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8816994047618041</v>
+        <v>0.8812579432564469</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1640</v>
@@ -2399,19 +2399,19 @@
         <v>1787458</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1754080</v>
+        <v>1753864</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1813788</v>
+        <v>1817425</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8732421276330707</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8569359542448761</v>
+        <v>0.856830257960111</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8861055185442309</v>
+        <v>0.8878824281018767</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>76227</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58671</v>
+        <v>59606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96940</v>
+        <v>96219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1008011376601856</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07758464708792556</v>
+        <v>0.07882092822815723</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1281911674816161</v>
+        <v>0.1272374798711315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -2524,19 +2524,19 @@
         <v>99562</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79784</v>
+        <v>81535</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>119498</v>
+        <v>120543</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1281081913182948</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1026587369223194</v>
+        <v>0.1049118842009765</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1537597398717829</v>
+        <v>0.155103767610965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>153</v>
@@ -2545,19 +2545,19 @@
         <v>175790</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>150197</v>
+        <v>150961</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>204888</v>
+        <v>205201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1146412879239363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09795096103472588</v>
+        <v>0.09844944973705891</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1336178983942161</v>
+        <v>0.133821974331893</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>679988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>659275</v>
+        <v>659996</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>697544</v>
+        <v>696609</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8991988623398144</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8718088325183831</v>
+        <v>0.8727625201288685</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9224153529120742</v>
+        <v>0.9211790717718428</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>616</v>
@@ -2595,19 +2595,19 @@
         <v>677612</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>657676</v>
+        <v>656631</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>697390</v>
+        <v>695639</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8718918086817052</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8462402601282171</v>
+        <v>0.8448962323890349</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8973412630776805</v>
+        <v>0.8950881157990234</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1240</v>
@@ -2616,19 +2616,19 @@
         <v>1357599</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1328501</v>
+        <v>1328188</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1383192</v>
+        <v>1382428</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8853587120760636</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8663821016057839</v>
+        <v>0.866178025668107</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.902049038965274</v>
+        <v>0.9015505502629411</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>105781</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87734</v>
+        <v>88057</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128658</v>
+        <v>128951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1116138251203611</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09257158723112911</v>
+        <v>0.09291222101289059</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1357523356565626</v>
+        <v>0.1360616580936846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>134</v>
@@ -2741,19 +2741,19 @@
         <v>141517</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120680</v>
+        <v>119452</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166105</v>
+        <v>166297</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1345349583311837</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1147254801899594</v>
+        <v>0.1135584522664775</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1579093746834718</v>
+        <v>0.1580914194812687</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>230</v>
@@ -2762,19 +2762,19 @@
         <v>247298</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>218545</v>
+        <v>219590</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>278257</v>
+        <v>278049</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1236713747545627</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1092923118457188</v>
+        <v>0.1098147937176182</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1391534161427639</v>
+        <v>0.1390493206880605</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>841958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>819081</v>
+        <v>818788</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>860005</v>
+        <v>859682</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8883861748796389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8642476643434368</v>
+        <v>0.863938341906315</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9074284127688708</v>
+        <v>0.9070877789871093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>869</v>
@@ -2812,19 +2812,19 @@
         <v>910384</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>885796</v>
+        <v>885604</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>931221</v>
+        <v>932449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8654650416688163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8420906253165282</v>
+        <v>0.8419085805187312</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8852745198100407</v>
+        <v>0.8864415477335222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1683</v>
@@ -2833,19 +2833,19 @@
         <v>1752342</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1721383</v>
+        <v>1721591</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1781095</v>
+        <v>1780050</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8763286252454373</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8608465838572361</v>
+        <v>0.8609506793119396</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8907076881542814</v>
+        <v>0.8901852062823818</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>388674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>350128</v>
+        <v>345912</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>426159</v>
+        <v>428364</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.113469095839011</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1022162136139512</v>
+        <v>0.1009853672908541</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1244125020809493</v>
+        <v>0.1250561437335867</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>452</v>
@@ -2958,19 +2958,19 @@
         <v>490840</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>448505</v>
+        <v>447926</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>533924</v>
+        <v>534933</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1380664750746221</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1261581695710918</v>
+        <v>0.1259953971791458</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1501855654183326</v>
+        <v>0.150469353745182</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>802</v>
@@ -2979,19 +2979,19 @@
         <v>879514</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>823921</v>
+        <v>822922</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>936670</v>
+        <v>939084</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1259963495977691</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1180323804693487</v>
+        <v>0.1178892608414724</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1341844448591491</v>
+        <v>0.1345302423381009</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3036696</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2999211</v>
+        <v>2997006</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3075242</v>
+        <v>3079458</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.886530904160989</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8755874979190506</v>
+        <v>0.8749438562664131</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8977837863860487</v>
+        <v>0.8990146327091459</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2844</v>
@@ -3029,19 +3029,19 @@
         <v>3064258</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3021174</v>
+        <v>3020165</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3106593</v>
+        <v>3107172</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.861933524925378</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8498144345816672</v>
+        <v>0.8495306462548177</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.873841830428908</v>
+        <v>0.8740046028208542</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5702</v>
@@ -3050,19 +3050,19 @@
         <v>6100955</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6043799</v>
+        <v>6041385</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6156548</v>
+        <v>6157547</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8740036504022309</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.865815555140851</v>
+        <v>0.8654697576618992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8819676195306514</v>
+        <v>0.8821107391585277</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>83877</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67965</v>
+        <v>68209</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101786</v>
+        <v>101954</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1242992387685834</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1007192302446472</v>
+        <v>0.1010796962477873</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1508383253961503</v>
+        <v>0.1510876858351449</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -3415,19 +3415,19 @@
         <v>102080</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84170</v>
+        <v>83910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124132</v>
+        <v>123313</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1517155091120759</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1250961879720703</v>
+        <v>0.1247101710900708</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1844896140857851</v>
+        <v>0.1832725390167603</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>181</v>
@@ -3436,19 +3436,19 @@
         <v>185957</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>161614</v>
+        <v>161217</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>213199</v>
+        <v>211790</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1379874266994004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1199237909078012</v>
+        <v>0.1196289530578929</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1582018416092916</v>
+        <v>0.1571562125095624</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>590923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>573014</v>
+        <v>572846</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>606835</v>
+        <v>606591</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8757007612314166</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8491616746038496</v>
+        <v>0.8489123141648551</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8992807697553526</v>
+        <v>0.8989203037522127</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>569</v>
@@ -3486,19 +3486,19 @@
         <v>570759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>548707</v>
+        <v>549526</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>588669</v>
+        <v>588929</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8482844908879241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.815510385914215</v>
+        <v>0.8167274609832397</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.87490381202793</v>
+        <v>0.8752898289099291</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1137</v>
@@ -3507,19 +3507,19 @@
         <v>1161682</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1134440</v>
+        <v>1135849</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1186025</v>
+        <v>1186422</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8620125733005997</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8417981583907084</v>
+        <v>0.8428437874904375</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8800762090921987</v>
+        <v>0.8803710469421071</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>122623</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101657</v>
+        <v>102876</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143645</v>
+        <v>143705</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1199330189410957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09942694438344492</v>
+        <v>0.100618661161266</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1404933378321813</v>
+        <v>0.1405524402213514</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -3632,19 +3632,19 @@
         <v>153251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>129818</v>
+        <v>129624</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>178268</v>
+        <v>176729</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1469446803218559</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1244766985449509</v>
+        <v>0.1242906711044446</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1709325507927183</v>
+        <v>0.1694567794887881</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>250</v>
@@ -3653,19 +3653,19 @@
         <v>275874</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>244438</v>
+        <v>242119</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>308859</v>
+        <v>310975</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1335727869138325</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1183524363354136</v>
+        <v>0.1172295172672022</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1495436721139548</v>
+        <v>0.1505682373392583</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>899808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>878786</v>
+        <v>878726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>920774</v>
+        <v>919555</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8800669810589042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8595066621678187</v>
+        <v>0.8594475597786485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9005730556165551</v>
+        <v>0.8993813388387339</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>844</v>
@@ -3703,19 +3703,19 @@
         <v>889662</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>864645</v>
+        <v>866184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>913095</v>
+        <v>913289</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8530553196781441</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8290674492072819</v>
+        <v>0.8305432205112118</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8755233014550491</v>
+        <v>0.8757093288955553</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1678</v>
@@ -3724,19 +3724,19 @@
         <v>1789470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1756485</v>
+        <v>1754369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1820906</v>
+        <v>1823225</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8664272130861674</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8504563278860452</v>
+        <v>0.8494317626607418</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8816475636645864</v>
+        <v>0.8827704827327978</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>94697</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76025</v>
+        <v>75158</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112807</v>
+        <v>113871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1246748448413937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1000924939010461</v>
+        <v>0.09895076751609326</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1485184359312881</v>
+        <v>0.1499191139295984</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -3849,19 +3849,19 @@
         <v>87700</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71747</v>
+        <v>69799</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108538</v>
+        <v>107631</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1117183903498566</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09139563508814315</v>
+        <v>0.08891483075476851</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1382627715273498</v>
+        <v>0.1371074866720211</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -3870,19 +3870,19 @@
         <v>182397</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159531</v>
+        <v>157940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>213315</v>
+        <v>212101</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1180898386640433</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1032852862829385</v>
+        <v>0.1022556163067435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1381073056574521</v>
+        <v>0.1373211889608117</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>664855</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>646745</v>
+        <v>645681</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>683527</v>
+        <v>684394</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8753251551586063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.851481564068712</v>
+        <v>0.8500808860704016</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8999075060989539</v>
+        <v>0.9010492324839068</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>660</v>
@@ -3920,19 +3920,19 @@
         <v>697311</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>676473</v>
+        <v>677380</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>713264</v>
+        <v>715212</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8882816096501434</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8617372284726501</v>
+        <v>0.862892513327979</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9086043649118568</v>
+        <v>0.9110851692452315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1265</v>
@@ -3941,19 +3941,19 @@
         <v>1362166</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1331248</v>
+        <v>1332462</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1385032</v>
+        <v>1386623</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8819101613359567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8618926943425478</v>
+        <v>0.8626788110391883</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8967147137170615</v>
+        <v>0.8977443836932565</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>87601</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70430</v>
+        <v>71571</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105263</v>
+        <v>108731</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09343434134047343</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07512042751655824</v>
+        <v>0.07633657270839313</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1122721247497141</v>
+        <v>0.1159712880257927</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -4066,19 +4066,19 @@
         <v>126307</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105754</v>
+        <v>104492</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151857</v>
+        <v>151637</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1210091553624679</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1013182213577058</v>
+        <v>0.1001095869130097</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1454874477938647</v>
+        <v>0.1452771921444967</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>194</v>
@@ -4087,19 +4087,19 @@
         <v>213908</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>184878</v>
+        <v>187345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>241963</v>
+        <v>246577</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1079608359472242</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09330946122865212</v>
+        <v>0.09455435353881211</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.122120724832929</v>
+        <v>0.1244493481530919</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>849966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>832304</v>
+        <v>828836</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>867137</v>
+        <v>865996</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9065656586595265</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.887727875250286</v>
+        <v>0.8840287119742073</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9248795724834419</v>
+        <v>0.9236634272916069</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>854</v>
@@ -4137,19 +4137,19 @@
         <v>917472</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>891922</v>
+        <v>892142</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>938025</v>
+        <v>939287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8789908446375321</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8545125522061353</v>
+        <v>0.8547228078555035</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8986817786422943</v>
+        <v>0.8998904130869908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1697</v>
@@ -4158,19 +4158,19 @@
         <v>1767438</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1739383</v>
+        <v>1734769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1796468</v>
+        <v>1794001</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8920391640527758</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8778792751670711</v>
+        <v>0.8755506518469083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.906690538771348</v>
+        <v>0.9054456464611881</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>388798</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>354014</v>
+        <v>352164</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>427114</v>
+        <v>429620</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1145427989490394</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1042952244932123</v>
+        <v>0.1037499509895467</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1258309598218785</v>
+        <v>0.1265692479158909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>411</v>
@@ -4283,19 +4283,19 @@
         <v>469338</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>424902</v>
+        <v>425625</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>510501</v>
+        <v>513377</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1324113550473348</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1198751428609108</v>
+        <v>0.1200789074993194</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1440244981741692</v>
+        <v>0.144835958759313</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>792</v>
@@ -4304,19 +4304,19 @@
         <v>858136</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>804897</v>
+        <v>806113</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>914751</v>
+        <v>909245</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1236704585853208</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.115997860905444</v>
+        <v>0.1161731739916131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1318295483419056</v>
+        <v>0.13103600363399</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3005552</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2967236</v>
+        <v>2964730</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3040336</v>
+        <v>3042186</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8854572010509606</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8741690401781209</v>
+        <v>0.8734307520841088</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8957047755067875</v>
+        <v>0.8962500490104534</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2927</v>
@@ -4354,19 +4354,19 @@
         <v>3075204</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3034041</v>
+        <v>3031165</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3119640</v>
+        <v>3118917</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8675886449526653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8559755018258307</v>
+        <v>0.8551640412406869</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8801248571390892</v>
+        <v>0.8799210925006806</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5777</v>
@@ -4375,19 +4375,19 @@
         <v>6080756</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6024141</v>
+        <v>6029647</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6133995</v>
+        <v>6132779</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8763295414146792</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8681704516580944</v>
+        <v>0.8689639963660094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8840021390945559</v>
+        <v>0.8838268260083868</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>102956</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86669</v>
+        <v>87161</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>121696</v>
+        <v>120510</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1491791725834921</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.125580056407773</v>
+        <v>0.1262931923723764</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1763326564109452</v>
+        <v>0.1746141024494847</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>274</v>
@@ -4740,19 +4740,19 @@
         <v>126463</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>112880</v>
+        <v>112155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>143562</v>
+        <v>141806</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1727399937489459</v>
+        <v>0.172739993748946</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1541853110042035</v>
+        <v>0.15319580281651</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1960954651103394</v>
+        <v>0.1936972994250611</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>414</v>
@@ -4761,19 +4761,19 @@
         <v>229419</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>208599</v>
+        <v>207659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>252941</v>
+        <v>252445</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1613070803937137</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.146667818547304</v>
+        <v>0.1460067981769894</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1778451949301777</v>
+        <v>0.1774964625529653</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>587194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>568454</v>
+        <v>569640</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>603481</v>
+        <v>602989</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8508208274165078</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8236673435890548</v>
+        <v>0.8253858975505154</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8744199435922266</v>
+        <v>0.8737068076276239</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>963</v>
@@ -4811,19 +4811,19 @@
         <v>605640</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>588541</v>
+        <v>590297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>619223</v>
+        <v>619948</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.827260006251054</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8039045348896605</v>
+        <v>0.8063027005749389</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8458146889957966</v>
+        <v>0.8468041971834899</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1552</v>
@@ -4832,19 +4832,19 @@
         <v>1192834</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1169312</v>
+        <v>1169808</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1213654</v>
+        <v>1214594</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8386929196062862</v>
+        <v>0.8386929196062863</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8221548050698223</v>
+        <v>0.8225035374470344</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8533321814526961</v>
+        <v>0.8539932018230103</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>145288</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>122885</v>
+        <v>124502</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>167575</v>
+        <v>168440</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1388308797551697</v>
+        <v>0.1388308797551696</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1174231572751197</v>
+        <v>0.1189682975031294</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1601264117431277</v>
+        <v>0.1609537562906771</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>298</v>
@@ -4957,19 +4957,19 @@
         <v>166759</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148723</v>
+        <v>148137</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>183933</v>
+        <v>185373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1561631615270349</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1392738422245121</v>
+        <v>0.138724355831691</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1722460436034715</v>
+        <v>0.1735950012174802</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>479</v>
@@ -4978,19 +4978,19 @@
         <v>312047</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>284898</v>
+        <v>283705</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>341197</v>
+        <v>341592</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1475844590636917</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.134744242044504</v>
+        <v>0.1341798258819877</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1613711129579103</v>
+        <v>0.1615578194954402</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>901226</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>878939</v>
+        <v>878074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>923629</v>
+        <v>922012</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8611691202448305</v>
+        <v>0.8611691202448303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8398735882568725</v>
+        <v>0.8390462437093225</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8825768427248805</v>
+        <v>0.8810317024968701</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1213</v>
@@ -5028,19 +5028,19 @@
         <v>901089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>883915</v>
+        <v>882475</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>919125</v>
+        <v>919711</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8438368384729652</v>
+        <v>0.8438368384729651</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8277539563965286</v>
+        <v>0.8264049987825202</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.860726157775488</v>
+        <v>0.8612756441683088</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1994</v>
@@ -5049,19 +5049,19 @@
         <v>1802315</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1773165</v>
+        <v>1772770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1829464</v>
+        <v>1830657</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8524155409363086</v>
+        <v>0.8524155409363083</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8386288870420896</v>
+        <v>0.8384421805045598</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8652557579554961</v>
+        <v>0.8658201741180125</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>122724</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103209</v>
+        <v>103557</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144206</v>
+        <v>146346</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1537620564671324</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1293121361399444</v>
+        <v>0.1297475202713621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1806779753840375</v>
+        <v>0.1833590773958321</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -5174,19 +5174,19 @@
         <v>108231</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94480</v>
+        <v>92509</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127382</v>
+        <v>125128</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1336889079329341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1167034463000861</v>
+        <v>0.1142682204365431</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1573450590763999</v>
+        <v>0.1545608942325289</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>293</v>
@@ -5195,19 +5195,19 @@
         <v>230955</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>205358</v>
+        <v>203887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>257601</v>
+        <v>255605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1436541104828593</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1277330604879053</v>
+        <v>0.126817989845933</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1602281466638577</v>
+        <v>0.1589866589354218</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>675417</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>653935</v>
+        <v>651795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>694932</v>
+        <v>694584</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8462379435328676</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8193220246159627</v>
+        <v>0.8166409226041679</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8706878638600555</v>
+        <v>0.870252479728638</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>878</v>
@@ -5245,19 +5245,19 @@
         <v>701343</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>682192</v>
+        <v>684446</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>715094</v>
+        <v>717065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.866311092067066</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8426549409236008</v>
+        <v>0.8454391057674715</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.883296553699914</v>
+        <v>0.8857317795634571</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1421</v>
@@ -5266,19 +5266,19 @@
         <v>1376760</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1350114</v>
+        <v>1352110</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1402357</v>
+        <v>1403828</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8563458895171406</v>
+        <v>0.8563458895171407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.839771853336142</v>
+        <v>0.8410133410645783</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8722669395120946</v>
+        <v>0.873182010154067</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>135637</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116274</v>
+        <v>115971</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156474</v>
+        <v>156540</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1371111553587153</v>
+        <v>0.1371111553587154</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1175371864801844</v>
+        <v>0.1172310052997056</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1581742752894614</v>
+        <v>0.1582408479996425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>336</v>
@@ -5391,19 +5391,19 @@
         <v>198032</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177218</v>
+        <v>179517</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>219137</v>
+        <v>219690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1773589926524628</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.158717878509323</v>
+        <v>0.1607767886464847</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1962615414778944</v>
+        <v>0.1967566237329607</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>515</v>
@@ -5412,19 +5412,19 @@
         <v>333669</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>307212</v>
+        <v>305205</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>363947</v>
+        <v>363511</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1584516676940848</v>
+        <v>0.1584516676940847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1458878459704576</v>
+        <v>0.1449346209488808</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1728297750114826</v>
+        <v>0.1726230673345028</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>853614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>832777</v>
+        <v>832711</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>872977</v>
+        <v>873280</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8628888446412846</v>
+        <v>0.8628888446412848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8418257247105385</v>
+        <v>0.8417591520003576</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8824628135198157</v>
+        <v>0.8827689947002945</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1222</v>
@@ -5462,19 +5462,19 @@
         <v>918526</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>897421</v>
+        <v>896868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>939340</v>
+        <v>937041</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8226410073475373</v>
+        <v>0.8226410073475372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8037384585221057</v>
+        <v>0.8032433762670393</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.841282121490677</v>
+        <v>0.8392232113535153</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2048</v>
@@ -5483,19 +5483,19 @@
         <v>1772141</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1741863</v>
+        <v>1742299</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1798598</v>
+        <v>1800605</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8415483323059153</v>
+        <v>0.8415483323059151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8271702249885174</v>
+        <v>0.8273769326654973</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8541121540295424</v>
+        <v>0.855065379051119</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>506606</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>469752</v>
+        <v>468947</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>547321</v>
+        <v>547029</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1437564016181793</v>
+        <v>0.1437564016181794</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.133298603685528</v>
+        <v>0.1330701104470726</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1553100516324988</v>
+        <v>0.1552271811126218</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1073</v>
@@ -5608,19 +5608,19 @@
         <v>599485</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>564071</v>
+        <v>562497</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>631579</v>
+        <v>633626</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1608887035586158</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1513843271827037</v>
+        <v>0.1509620813084449</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1695020821135091</v>
+        <v>0.1700516201816058</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1701</v>
@@ -5629,19 +5629,19 @@
         <v>1106090</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1048512</v>
+        <v>1053313</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1158014</v>
+        <v>1160081</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1525612497852638</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1446196008605768</v>
+        <v>0.1452817143800274</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1597229421799662</v>
+        <v>0.160008040615473</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3017451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2976736</v>
+        <v>2977028</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3054305</v>
+        <v>3055110</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8562435983818207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8446899483675013</v>
+        <v>0.8447728188873781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.866701396314472</v>
+        <v>0.8669298895529272</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4276</v>
@@ -5679,19 +5679,19 @@
         <v>3126598</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3094504</v>
+        <v>3092457</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3162012</v>
+        <v>3163586</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8391112964413843</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8304979178864909</v>
+        <v>0.8299483798183944</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8486156728172961</v>
+        <v>0.8490379186915548</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7015</v>
@@ -5700,19 +5700,19 @@
         <v>6144050</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6092126</v>
+        <v>6090059</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6201628</v>
+        <v>6196827</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8474387502147362</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8402770578200335</v>
+        <v>0.8399919593845272</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8553803991394231</v>
+        <v>0.8547182856199728</v>
       </c>
     </row>
     <row r="18">
